--- a/biology/Zoologie/Alaskacephale/Alaskacephale.xlsx
+++ b/biology/Zoologie/Alaskacephale/Alaskacephale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alaskacephale gangloffi
 Alaskacephale (« tête d'Alaska ») est un genre éteint de dinosaures ornithischiensde la famille des Pachycephalosauridae qui vivait à la fin du Crétacé supérieur (Campanien, il y a environ entre 83,5 et 70,6 millions d’années). Il a été décrit par Sullivan en 2006.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom signifie tête d'Alaska
 Période :  Crétacé (- 144 Ma à - 66 Ma)
@@ -546,7 +560,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>céphale : du grec kephalê [-céphale, céphal(o)-, -céphalie], tête.
 Le nom du genre fait référence à l’endroit où le fossile a été découvert, la Formation de Prince Creek en Alaska et aux pachycéphalosaures en général.
@@ -578,7 +594,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le seul spécimen connu d’Alaskacephale gangloffi est l’holotype, un squamosal (os du crâne) gauche presque complet avec les caractéristiques nœuds polygonaux. Les dimensions de cet os suggèrent qu’A. gangloffi mesurait la moitié de la taille de Pachycephalosaurus wyomingensis ou les trois quarts de la taille de Prenocephale prenes, la même taille que Prenocephale edmontonensis et Prenocephale brevis (Gangloff et al., 2005).
 </t>
@@ -609,10 +627,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alaskacephale appartient à la famille des Pachycephalosauridae et plus précisément à la tribu des Pachycephalosaurini érigée en 2016[1]. À l'intérieur de celle-ci, il est en groupe frère avec le genre Pachycephalosaurus.
-Le cladogramme suivant est modifié d'Evans et de ses collègues en 2013[2]. Il montre la position d'Alaskacephale :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alaskacephale appartient à la famille des Pachycephalosauridae et plus précisément à la tribu des Pachycephalosaurini érigée en 2016. À l'intérieur de celle-ci, il est en groupe frère avec le genre Pachycephalosaurus.
+Le cladogramme suivant est modifié d'Evans et de ses collègues en 2013. Il montre la position d'Alaskacephale :
 </t>
         </is>
       </c>
